--- a/OYM/_DocumentosComunes/_BaseDatos.xlsx
+++ b/OYM/_DocumentosComunes/_BaseDatos.xlsx
@@ -1,15 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr defaultThemeVersion="153222"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="21601"/>
+  <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\_DESARRLLOPERSONAL\DocumentosUniversitarios\OYM\_DocumentosComunes\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\_kOneDrive\_DESARROLLO\_DocumentosUniversitarios\OYM\_DocumentosComunes\"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E4831773-4168-42E2-B9AC-560A503A3413}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="17970" windowHeight="6120"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -18,7 +19,7 @@
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Sheet1!$A$3:$I$3</definedName>
   </definedNames>
-  <calcPr calcId="152511"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -699,8 +700,8 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="6" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="9" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -744,13 +745,44 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <u/>
+      <sz val="14"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <u/>
+      <sz val="14"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="2">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
+        <bgColor indexed="64"/>
+      </patternFill>
     </fill>
   </fills>
   <borders count="1">
@@ -765,7 +797,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="9">
+  <cellXfs count="17">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -781,6 +813,18 @@
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1060,14 +1104,14 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:J384"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A88" workbookViewId="0">
-      <selection activeCell="H4" sqref="H4:H109"/>
+    <sheetView tabSelected="1" topLeftCell="A66" workbookViewId="0">
+      <selection activeCell="C75" sqref="C75"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="5.5703125" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="20" customWidth="1"/>
@@ -3038,317 +3082,419 @@
       </c>
       <c r="J67" s="3"/>
     </row>
-    <row r="68" spans="1:10" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A68" s="7">
+    <row r="68" spans="1:10" s="12" customFormat="1" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="A68" s="9">
         <v>65</v>
       </c>
-      <c r="B68" s="7" t="s">
+      <c r="B68" s="9" t="s">
         <v>138</v>
       </c>
-      <c r="C68" s="7" t="s">
+      <c r="C68" s="9" t="s">
         <v>139</v>
       </c>
-      <c r="D68" s="3"/>
-      <c r="E68" s="3"/>
-      <c r="F68" s="3"/>
-      <c r="G68" s="3"/>
-      <c r="H68" s="3">
+      <c r="D68" s="10">
+        <v>10</v>
+      </c>
+      <c r="E68" s="10">
+        <v>14</v>
+      </c>
+      <c r="F68" s="10">
+        <v>20</v>
+      </c>
+      <c r="G68" s="10">
+        <v>40</v>
+      </c>
+      <c r="H68" s="10">
         <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="I68" s="5" t="str">
+        <v>84</v>
+      </c>
+      <c r="I68" s="11" t="str">
         <f t="shared" si="1"/>
-        <v/>
-      </c>
-      <c r="J68" s="3"/>
-    </row>
-    <row r="69" spans="1:10" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A69" s="7">
+        <v>B</v>
+      </c>
+      <c r="J68" s="10"/>
+    </row>
+    <row r="69" spans="1:10" s="12" customFormat="1" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="A69" s="9">
         <v>66</v>
       </c>
-      <c r="B69" s="7" t="s">
+      <c r="B69" s="9" t="s">
         <v>140</v>
       </c>
-      <c r="C69" s="7" t="s">
+      <c r="C69" s="9" t="s">
         <v>141</v>
       </c>
-      <c r="D69" s="3"/>
-      <c r="E69" s="3"/>
-      <c r="F69" s="3"/>
-      <c r="G69" s="3"/>
-      <c r="H69" s="3">
+      <c r="D69" s="10">
+        <v>10</v>
+      </c>
+      <c r="E69" s="10">
+        <v>11</v>
+      </c>
+      <c r="F69" s="10">
+        <v>20</v>
+      </c>
+      <c r="G69" s="10">
+        <v>45</v>
+      </c>
+      <c r="H69" s="10">
         <f t="shared" ref="H69:H109" si="2">(D69+E69+F69+G69)</f>
-        <v>0</v>
-      </c>
-      <c r="I69" s="5" t="str">
+        <v>86</v>
+      </c>
+      <c r="I69" s="11" t="str">
         <f t="shared" ref="I69:I110" si="3">IF((H69)&gt;=1,IF(H69&gt;=50,IF(H69&gt;=70,IF(H69&gt;=75,IF(H69&gt;=80,IF(H69&gt;=90,"A","B"),"C"),"D"),"FI"),"F"), "" )</f>
-        <v/>
-      </c>
-      <c r="J69" s="3"/>
-    </row>
-    <row r="70" spans="1:10" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A70" s="7">
+        <v>B</v>
+      </c>
+      <c r="J69" s="10"/>
+    </row>
+    <row r="70" spans="1:10" s="12" customFormat="1" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="A70" s="9">
         <v>67</v>
       </c>
-      <c r="B70" s="7" t="s">
+      <c r="B70" s="9" t="s">
         <v>142</v>
       </c>
-      <c r="C70" s="7" t="s">
+      <c r="C70" s="9" t="s">
         <v>143</v>
       </c>
-      <c r="D70" s="3"/>
-      <c r="E70" s="3"/>
-      <c r="F70" s="3"/>
-      <c r="G70" s="3"/>
-      <c r="H70" s="3">
+      <c r="D70" s="10">
+        <v>10</v>
+      </c>
+      <c r="E70" s="10">
+        <v>20</v>
+      </c>
+      <c r="F70" s="10">
+        <v>18</v>
+      </c>
+      <c r="G70" s="10">
+        <v>50</v>
+      </c>
+      <c r="H70" s="10">
         <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="I70" s="5" t="str">
+        <v>98</v>
+      </c>
+      <c r="I70" s="11" t="str">
         <f t="shared" si="3"/>
-        <v/>
-      </c>
-      <c r="J70" s="3"/>
-    </row>
-    <row r="71" spans="1:10" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A71" s="7">
+        <v>A</v>
+      </c>
+      <c r="J70" s="10"/>
+    </row>
+    <row r="71" spans="1:10" s="12" customFormat="1" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="A71" s="9">
         <v>68</v>
       </c>
-      <c r="B71" s="7" t="s">
+      <c r="B71" s="9" t="s">
         <v>144</v>
       </c>
-      <c r="C71" s="7" t="s">
+      <c r="C71" s="9" t="s">
         <v>145</v>
       </c>
-      <c r="D71" s="3"/>
-      <c r="E71" s="3"/>
-      <c r="F71" s="3"/>
-      <c r="G71" s="3"/>
-      <c r="H71" s="3">
+      <c r="D71" s="10">
+        <v>10</v>
+      </c>
+      <c r="E71" s="10">
+        <v>15</v>
+      </c>
+      <c r="F71" s="10">
+        <v>20</v>
+      </c>
+      <c r="G71" s="10">
+        <v>45</v>
+      </c>
+      <c r="H71" s="10">
         <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="I71" s="5" t="str">
+        <v>90</v>
+      </c>
+      <c r="I71" s="11" t="str">
         <f t="shared" si="3"/>
-        <v/>
-      </c>
-      <c r="J71" s="3"/>
-    </row>
-    <row r="72" spans="1:10" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A72" s="7">
+        <v>A</v>
+      </c>
+      <c r="J71" s="10"/>
+    </row>
+    <row r="72" spans="1:10" s="12" customFormat="1" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="A72" s="9">
         <v>69</v>
       </c>
-      <c r="B72" s="7" t="s">
+      <c r="B72" s="9" t="s">
         <v>146</v>
       </c>
-      <c r="C72" s="7" t="s">
+      <c r="C72" s="9" t="s">
         <v>147</v>
       </c>
-      <c r="D72" s="3"/>
-      <c r="E72" s="3"/>
-      <c r="F72" s="3"/>
-      <c r="G72" s="3"/>
-      <c r="H72" s="3">
+      <c r="D72" s="10">
+        <v>10</v>
+      </c>
+      <c r="E72" s="10">
+        <v>2</v>
+      </c>
+      <c r="F72" s="10">
+        <v>18</v>
+      </c>
+      <c r="G72" s="10">
+        <v>40</v>
+      </c>
+      <c r="H72" s="10">
         <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="I72" s="5" t="str">
+        <v>70</v>
+      </c>
+      <c r="I72" s="11" t="str">
         <f t="shared" si="3"/>
-        <v/>
-      </c>
-      <c r="J72" s="3"/>
-    </row>
-    <row r="73" spans="1:10" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A73" s="7">
+        <v>D</v>
+      </c>
+      <c r="J72" s="10"/>
+    </row>
+    <row r="73" spans="1:10" s="12" customFormat="1" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="A73" s="9">
         <v>70</v>
       </c>
-      <c r="B73" s="7" t="s">
+      <c r="B73" s="9" t="s">
         <v>148</v>
       </c>
-      <c r="C73" s="7" t="s">
+      <c r="C73" s="9" t="s">
         <v>149</v>
       </c>
-      <c r="D73" s="3"/>
-      <c r="E73" s="3"/>
-      <c r="F73" s="3"/>
-      <c r="G73" s="3"/>
-      <c r="H73" s="3">
+      <c r="D73" s="10">
+        <v>10</v>
+      </c>
+      <c r="E73" s="10">
+        <v>20</v>
+      </c>
+      <c r="F73" s="10">
+        <v>20</v>
+      </c>
+      <c r="G73" s="10">
+        <v>50</v>
+      </c>
+      <c r="H73" s="10">
         <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="I73" s="5" t="str">
+        <v>100</v>
+      </c>
+      <c r="I73" s="11" t="str">
         <f t="shared" si="3"/>
-        <v/>
-      </c>
-      <c r="J73" s="3"/>
-    </row>
-    <row r="74" spans="1:10" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A74" s="7">
+        <v>A</v>
+      </c>
+      <c r="J73" s="10"/>
+    </row>
+    <row r="74" spans="1:10" s="12" customFormat="1" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="A74" s="9">
         <v>71</v>
       </c>
-      <c r="B74" s="7" t="s">
+      <c r="B74" s="9" t="s">
         <v>150</v>
       </c>
-      <c r="C74" s="7" t="s">
+      <c r="C74" s="9" t="s">
         <v>151</v>
       </c>
-      <c r="D74" s="3"/>
-      <c r="E74" s="3"/>
-      <c r="F74" s="3"/>
-      <c r="G74" s="3"/>
-      <c r="H74" s="3">
+      <c r="D74" s="10">
+        <v>10</v>
+      </c>
+      <c r="E74" s="10">
+        <v>10</v>
+      </c>
+      <c r="F74" s="10">
+        <v>5</v>
+      </c>
+      <c r="G74" s="10">
+        <v>45</v>
+      </c>
+      <c r="H74" s="10">
         <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="I74" s="5" t="str">
+        <v>70</v>
+      </c>
+      <c r="I74" s="11" t="str">
         <f t="shared" si="3"/>
-        <v/>
-      </c>
-      <c r="J74" s="3"/>
-    </row>
-    <row r="75" spans="1:10" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A75" s="7">
+        <v>D</v>
+      </c>
+      <c r="J74" s="10"/>
+    </row>
+    <row r="75" spans="1:10" s="12" customFormat="1" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="A75" s="9">
         <v>72</v>
       </c>
-      <c r="B75" s="7" t="s">
+      <c r="B75" s="9" t="s">
         <v>152</v>
       </c>
-      <c r="C75" s="7" t="s">
+      <c r="C75" s="9" t="s">
         <v>153</v>
       </c>
-      <c r="D75" s="3"/>
-      <c r="E75" s="3"/>
-      <c r="F75" s="3"/>
-      <c r="G75" s="3"/>
-      <c r="H75" s="3">
+      <c r="D75" s="10">
+        <v>10</v>
+      </c>
+      <c r="E75" s="10">
+        <v>10</v>
+      </c>
+      <c r="F75" s="10">
+        <v>15</v>
+      </c>
+      <c r="G75" s="10">
+        <v>50</v>
+      </c>
+      <c r="H75" s="10">
         <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="I75" s="5" t="str">
+        <v>85</v>
+      </c>
+      <c r="I75" s="11" t="str">
         <f t="shared" si="3"/>
-        <v/>
-      </c>
-      <c r="J75" s="3"/>
-    </row>
-    <row r="76" spans="1:10" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A76" s="7">
+        <v>B</v>
+      </c>
+      <c r="J75" s="10"/>
+    </row>
+    <row r="76" spans="1:10" s="12" customFormat="1" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="A76" s="9">
         <v>73</v>
       </c>
-      <c r="B76" s="7" t="s">
+      <c r="B76" s="9" t="s">
         <v>154</v>
       </c>
-      <c r="C76" s="7" t="s">
+      <c r="C76" s="9" t="s">
         <v>155</v>
       </c>
-      <c r="D76" s="3"/>
-      <c r="E76" s="3"/>
-      <c r="F76" s="3"/>
-      <c r="G76" s="3"/>
-      <c r="H76" s="3">
+      <c r="D76" s="10">
+        <v>10</v>
+      </c>
+      <c r="E76" s="10">
+        <v>10</v>
+      </c>
+      <c r="F76" s="10">
+        <v>10</v>
+      </c>
+      <c r="G76" s="10">
+        <v>30</v>
+      </c>
+      <c r="H76" s="10">
         <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="I76" s="5" t="str">
+        <v>60</v>
+      </c>
+      <c r="I76" s="11" t="str">
         <f t="shared" si="3"/>
-        <v/>
-      </c>
-      <c r="J76" s="3"/>
-    </row>
-    <row r="77" spans="1:10" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A77" s="7">
+        <v>FI</v>
+      </c>
+      <c r="J76" s="10"/>
+    </row>
+    <row r="77" spans="1:10" s="12" customFormat="1" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="A77" s="9">
         <v>74</v>
       </c>
-      <c r="B77" s="7" t="s">
+      <c r="B77" s="9" t="s">
         <v>156</v>
       </c>
-      <c r="C77" s="7" t="s">
+      <c r="C77" s="9" t="s">
         <v>157</v>
       </c>
-      <c r="D77" s="3"/>
-      <c r="E77" s="3"/>
-      <c r="F77" s="3"/>
-      <c r="G77" s="3"/>
-      <c r="H77" s="3">
+      <c r="D77" s="10">
+        <v>10</v>
+      </c>
+      <c r="E77" s="10">
+        <v>11</v>
+      </c>
+      <c r="F77" s="10">
+        <v>20</v>
+      </c>
+      <c r="G77" s="10">
+        <v>50</v>
+      </c>
+      <c r="H77" s="10">
         <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="I77" s="5" t="str">
+        <v>91</v>
+      </c>
+      <c r="I77" s="11" t="str">
         <f t="shared" si="3"/>
-        <v/>
-      </c>
-      <c r="J77" s="3"/>
-    </row>
-    <row r="78" spans="1:10" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A78" s="7">
+        <v>A</v>
+      </c>
+      <c r="J77" s="10"/>
+    </row>
+    <row r="78" spans="1:10" s="12" customFormat="1" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="A78" s="9">
         <v>75</v>
       </c>
-      <c r="B78" s="7" t="s">
+      <c r="B78" s="9" t="s">
         <v>158</v>
       </c>
-      <c r="C78" s="7" t="s">
+      <c r="C78" s="9" t="s">
         <v>159</v>
       </c>
-      <c r="D78" s="3"/>
-      <c r="E78" s="3"/>
-      <c r="F78" s="3"/>
-      <c r="G78" s="3"/>
-      <c r="H78" s="3">
+      <c r="D78" s="10">
+        <v>10</v>
+      </c>
+      <c r="E78" s="10">
+        <v>14</v>
+      </c>
+      <c r="F78" s="10">
+        <v>20</v>
+      </c>
+      <c r="G78" s="10"/>
+      <c r="H78" s="10">
         <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="I78" s="5" t="str">
+        <v>44</v>
+      </c>
+      <c r="I78" s="11" t="str">
         <f t="shared" si="3"/>
-        <v/>
-      </c>
-      <c r="J78" s="3"/>
-    </row>
-    <row r="79" spans="1:10" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A79" s="7">
+        <v>F</v>
+      </c>
+      <c r="J78" s="10"/>
+    </row>
+    <row r="79" spans="1:10" s="12" customFormat="1" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="A79" s="9">
         <v>76</v>
       </c>
-      <c r="B79" s="7" t="s">
+      <c r="B79" s="9" t="s">
         <v>160</v>
       </c>
-      <c r="C79" s="7" t="s">
+      <c r="C79" s="9" t="s">
         <v>161</v>
       </c>
-      <c r="D79" s="3"/>
-      <c r="E79" s="3"/>
-      <c r="F79" s="3"/>
-      <c r="G79" s="3"/>
-      <c r="H79" s="3">
+      <c r="D79" s="10">
+        <v>10</v>
+      </c>
+      <c r="E79" s="10">
+        <v>20</v>
+      </c>
+      <c r="F79" s="10">
+        <v>20</v>
+      </c>
+      <c r="G79" s="10">
+        <v>50</v>
+      </c>
+      <c r="H79" s="10">
         <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="I79" s="5" t="str">
+        <v>100</v>
+      </c>
+      <c r="I79" s="11" t="str">
         <f t="shared" si="3"/>
-        <v/>
-      </c>
-      <c r="J79" s="3"/>
-    </row>
-    <row r="80" spans="1:10" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A80" s="7">
+        <v>A</v>
+      </c>
+      <c r="J79" s="10"/>
+    </row>
+    <row r="80" spans="1:10" s="12" customFormat="1" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="A80" s="9">
         <v>77</v>
       </c>
-      <c r="B80" s="7" t="s">
+      <c r="B80" s="9" t="s">
         <v>162</v>
       </c>
-      <c r="C80" s="7" t="s">
+      <c r="C80" s="9" t="s">
         <v>163</v>
       </c>
-      <c r="D80" s="3"/>
-      <c r="E80" s="3"/>
-      <c r="F80" s="3"/>
-      <c r="G80" s="3"/>
-      <c r="H80" s="3">
+      <c r="D80" s="10">
+        <v>10</v>
+      </c>
+      <c r="E80" s="10">
+        <v>10</v>
+      </c>
+      <c r="F80" s="10">
+        <v>10</v>
+      </c>
+      <c r="G80" s="10">
+        <v>40</v>
+      </c>
+      <c r="H80" s="10">
         <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="I80" s="5" t="str">
+        <v>70</v>
+      </c>
+      <c r="I80" s="11" t="str">
         <f t="shared" si="3"/>
-        <v/>
-      </c>
-      <c r="J80" s="3"/>
+        <v>D</v>
+      </c>
+      <c r="J80" s="10"/>
     </row>
     <row r="81" spans="1:10" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A81" s="7">
@@ -3398,125 +3544,165 @@
       </c>
       <c r="J82" s="3"/>
     </row>
-    <row r="83" spans="1:10" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A83" s="7">
+    <row r="83" spans="1:10" s="12" customFormat="1" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="A83" s="9">
         <v>80</v>
       </c>
-      <c r="B83" s="7" t="s">
+      <c r="B83" s="9" t="s">
         <v>168</v>
       </c>
-      <c r="C83" s="7" t="s">
+      <c r="C83" s="9" t="s">
         <v>169</v>
       </c>
-      <c r="D83" s="3"/>
-      <c r="E83" s="3"/>
-      <c r="F83" s="3"/>
-      <c r="G83" s="3"/>
-      <c r="H83" s="3">
+      <c r="D83" s="10">
+        <v>10</v>
+      </c>
+      <c r="E83" s="10">
+        <v>10</v>
+      </c>
+      <c r="F83" s="10">
+        <v>18</v>
+      </c>
+      <c r="G83" s="10">
+        <v>50</v>
+      </c>
+      <c r="H83" s="10">
         <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="I83" s="5" t="str">
+        <v>88</v>
+      </c>
+      <c r="I83" s="11" t="str">
         <f t="shared" si="3"/>
-        <v/>
-      </c>
-      <c r="J83" s="3"/>
-    </row>
-    <row r="84" spans="1:10" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A84" s="7">
+        <v>B</v>
+      </c>
+      <c r="J83" s="10"/>
+    </row>
+    <row r="84" spans="1:10" s="12" customFormat="1" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="A84" s="9">
         <v>81</v>
       </c>
-      <c r="B84" s="7" t="s">
+      <c r="B84" s="9" t="s">
         <v>170</v>
       </c>
-      <c r="C84" s="7" t="s">
+      <c r="C84" s="9" t="s">
         <v>171</v>
       </c>
-      <c r="D84" s="3"/>
-      <c r="E84" s="3"/>
-      <c r="F84" s="3"/>
-      <c r="G84" s="3"/>
-      <c r="H84" s="3">
+      <c r="D84" s="10">
+        <v>10</v>
+      </c>
+      <c r="E84" s="10">
+        <v>11</v>
+      </c>
+      <c r="F84" s="10">
+        <v>20</v>
+      </c>
+      <c r="G84" s="10">
+        <v>50</v>
+      </c>
+      <c r="H84" s="10">
         <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="I84" s="5" t="str">
+        <v>91</v>
+      </c>
+      <c r="I84" s="11" t="str">
         <f t="shared" si="3"/>
-        <v/>
-      </c>
-      <c r="J84" s="3"/>
-    </row>
-    <row r="85" spans="1:10" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A85" s="7">
+        <v>A</v>
+      </c>
+      <c r="J84" s="10"/>
+    </row>
+    <row r="85" spans="1:10" s="12" customFormat="1" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="A85" s="9">
         <v>82</v>
       </c>
-      <c r="B85" s="7" t="s">
+      <c r="B85" s="9" t="s">
         <v>172</v>
       </c>
-      <c r="C85" s="7" t="s">
+      <c r="C85" s="9" t="s">
         <v>173</v>
       </c>
-      <c r="D85" s="3"/>
-      <c r="E85" s="3"/>
-      <c r="F85" s="3"/>
-      <c r="G85" s="3"/>
-      <c r="H85" s="3">
+      <c r="D85" s="10">
+        <v>10</v>
+      </c>
+      <c r="E85" s="10">
+        <v>20</v>
+      </c>
+      <c r="F85" s="10">
+        <v>20</v>
+      </c>
+      <c r="G85" s="10">
+        <v>30</v>
+      </c>
+      <c r="H85" s="10">
         <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="I85" s="5" t="str">
+        <v>80</v>
+      </c>
+      <c r="I85" s="11" t="str">
         <f t="shared" si="3"/>
-        <v/>
-      </c>
-      <c r="J85" s="3"/>
-    </row>
-    <row r="86" spans="1:10" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A86" s="7">
+        <v>B</v>
+      </c>
+      <c r="J85" s="10"/>
+    </row>
+    <row r="86" spans="1:10" s="12" customFormat="1" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="A86" s="9">
         <v>83</v>
       </c>
-      <c r="B86" s="7" t="s">
+      <c r="B86" s="9" t="s">
         <v>174</v>
       </c>
-      <c r="C86" s="7" t="s">
+      <c r="C86" s="9" t="s">
         <v>175</v>
       </c>
-      <c r="D86" s="3"/>
-      <c r="E86" s="3"/>
-      <c r="F86" s="3"/>
-      <c r="G86" s="3"/>
-      <c r="H86" s="3">
+      <c r="D86" s="10">
+        <v>10</v>
+      </c>
+      <c r="E86" s="10">
+        <v>10</v>
+      </c>
+      <c r="F86" s="10">
+        <v>18</v>
+      </c>
+      <c r="G86" s="10">
+        <v>50</v>
+      </c>
+      <c r="H86" s="10">
         <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="I86" s="5" t="str">
+        <v>88</v>
+      </c>
+      <c r="I86" s="11" t="str">
         <f t="shared" si="3"/>
-        <v/>
-      </c>
-      <c r="J86" s="3"/>
-    </row>
-    <row r="87" spans="1:10" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A87" s="7">
+        <v>B</v>
+      </c>
+      <c r="J86" s="10"/>
+    </row>
+    <row r="87" spans="1:10" s="12" customFormat="1" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="A87" s="9">
         <v>84</v>
       </c>
-      <c r="B87" s="7" t="s">
+      <c r="B87" s="9" t="s">
         <v>176</v>
       </c>
-      <c r="C87" s="7" t="s">
+      <c r="C87" s="9" t="s">
         <v>177</v>
       </c>
-      <c r="D87" s="3"/>
-      <c r="E87" s="3"/>
-      <c r="F87" s="3"/>
-      <c r="G87" s="3"/>
-      <c r="H87" s="3">
+      <c r="D87" s="10">
+        <v>10</v>
+      </c>
+      <c r="E87" s="10">
+        <v>20</v>
+      </c>
+      <c r="F87" s="10">
+        <v>6</v>
+      </c>
+      <c r="G87" s="10">
+        <v>50</v>
+      </c>
+      <c r="H87" s="10">
         <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="I87" s="5" t="str">
+        <v>86</v>
+      </c>
+      <c r="I87" s="11" t="str">
         <f t="shared" si="3"/>
-        <v/>
-      </c>
-      <c r="J87" s="3"/>
+        <v>B</v>
+      </c>
+      <c r="J87" s="10"/>
     </row>
     <row r="88" spans="1:10" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A88" s="7">
@@ -3542,365 +3728,483 @@
       </c>
       <c r="J88" s="3"/>
     </row>
-    <row r="89" spans="1:10" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A89" s="7">
+    <row r="89" spans="1:10" s="12" customFormat="1" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="A89" s="9">
         <v>86</v>
       </c>
-      <c r="B89" s="7" t="s">
+      <c r="B89" s="9" t="s">
         <v>180</v>
       </c>
-      <c r="C89" s="7" t="s">
+      <c r="C89" s="9" t="s">
         <v>181</v>
       </c>
-      <c r="D89" s="3"/>
-      <c r="E89" s="3"/>
-      <c r="F89" s="3"/>
-      <c r="G89" s="3"/>
-      <c r="H89" s="3">
+      <c r="D89" s="10">
+        <v>10</v>
+      </c>
+      <c r="E89" s="10">
+        <v>20</v>
+      </c>
+      <c r="F89" s="10">
+        <v>20</v>
+      </c>
+      <c r="G89" s="10">
+        <v>50</v>
+      </c>
+      <c r="H89" s="10">
         <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="I89" s="5" t="str">
+        <v>100</v>
+      </c>
+      <c r="I89" s="11" t="str">
         <f t="shared" si="3"/>
-        <v/>
-      </c>
-      <c r="J89" s="3"/>
-    </row>
-    <row r="90" spans="1:10" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A90" s="7">
+        <v>A</v>
+      </c>
+      <c r="J89" s="10"/>
+    </row>
+    <row r="90" spans="1:10" s="12" customFormat="1" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="A90" s="9">
         <v>87</v>
       </c>
-      <c r="B90" s="7" t="s">
+      <c r="B90" s="9" t="s">
         <v>182</v>
       </c>
-      <c r="C90" s="7" t="s">
+      <c r="C90" s="9" t="s">
         <v>183</v>
       </c>
-      <c r="D90" s="3"/>
-      <c r="E90" s="3"/>
-      <c r="F90" s="3"/>
-      <c r="G90" s="3"/>
-      <c r="H90" s="3">
+      <c r="D90" s="10">
+        <v>10</v>
+      </c>
+      <c r="E90" s="10">
+        <v>10</v>
+      </c>
+      <c r="F90" s="10">
+        <v>18</v>
+      </c>
+      <c r="G90" s="10">
+        <v>50</v>
+      </c>
+      <c r="H90" s="10">
         <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="I90" s="5" t="str">
+        <v>88</v>
+      </c>
+      <c r="I90" s="11" t="str">
         <f t="shared" si="3"/>
-        <v/>
-      </c>
-      <c r="J90" s="3"/>
-    </row>
-    <row r="91" spans="1:10" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A91" s="7">
+        <v>B</v>
+      </c>
+      <c r="J90" s="10"/>
+    </row>
+    <row r="91" spans="1:10" s="12" customFormat="1" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="A91" s="9">
         <v>88</v>
       </c>
-      <c r="B91" s="7" t="s">
+      <c r="B91" s="9" t="s">
         <v>184</v>
       </c>
-      <c r="C91" s="7" t="s">
+      <c r="C91" s="9" t="s">
         <v>185</v>
       </c>
-      <c r="D91" s="3"/>
-      <c r="E91" s="3"/>
-      <c r="F91" s="3"/>
-      <c r="G91" s="3"/>
-      <c r="H91" s="3">
+      <c r="D91" s="10">
+        <v>10</v>
+      </c>
+      <c r="E91" s="10">
+        <v>10</v>
+      </c>
+      <c r="F91" s="10">
+        <v>18</v>
+      </c>
+      <c r="G91" s="10">
+        <v>50</v>
+      </c>
+      <c r="H91" s="10">
         <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="I91" s="5" t="str">
+        <v>88</v>
+      </c>
+      <c r="I91" s="11" t="str">
         <f t="shared" si="3"/>
-        <v/>
-      </c>
-      <c r="J91" s="3"/>
-    </row>
-    <row r="92" spans="1:10" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A92" s="7">
+        <v>B</v>
+      </c>
+      <c r="J91" s="10"/>
+    </row>
+    <row r="92" spans="1:10" s="12" customFormat="1" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="A92" s="9">
         <v>89</v>
       </c>
-      <c r="B92" s="7" t="s">
+      <c r="B92" s="9" t="s">
         <v>186</v>
       </c>
-      <c r="C92" s="7" t="s">
+      <c r="C92" s="9" t="s">
         <v>187</v>
       </c>
-      <c r="D92" s="3"/>
-      <c r="E92" s="3"/>
-      <c r="F92" s="3"/>
-      <c r="G92" s="3"/>
-      <c r="H92" s="3">
+      <c r="D92" s="10">
+        <v>10</v>
+      </c>
+      <c r="E92" s="10">
+        <v>11</v>
+      </c>
+      <c r="F92" s="10">
+        <v>20</v>
+      </c>
+      <c r="G92" s="10">
+        <v>50</v>
+      </c>
+      <c r="H92" s="10">
         <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="I92" s="5" t="str">
+        <v>91</v>
+      </c>
+      <c r="I92" s="11" t="str">
         <f t="shared" si="3"/>
-        <v/>
-      </c>
-      <c r="J92" s="3"/>
-    </row>
-    <row r="93" spans="1:10" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A93" s="7">
+        <v>A</v>
+      </c>
+      <c r="J92" s="10"/>
+    </row>
+    <row r="93" spans="1:10" s="12" customFormat="1" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="A93" s="9">
         <v>90</v>
       </c>
-      <c r="B93" s="7" t="s">
+      <c r="B93" s="9" t="s">
         <v>188</v>
       </c>
-      <c r="C93" s="7" t="s">
+      <c r="C93" s="9" t="s">
         <v>189</v>
       </c>
-      <c r="D93" s="3"/>
-      <c r="E93" s="3"/>
-      <c r="F93" s="3"/>
-      <c r="G93" s="3"/>
-      <c r="H93" s="3">
+      <c r="D93" s="10">
+        <v>10</v>
+      </c>
+      <c r="E93" s="10">
+        <v>14</v>
+      </c>
+      <c r="F93" s="10">
+        <v>20</v>
+      </c>
+      <c r="G93" s="10">
+        <v>50</v>
+      </c>
+      <c r="H93" s="10">
         <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="I93" s="5" t="str">
+        <v>94</v>
+      </c>
+      <c r="I93" s="11" t="str">
         <f t="shared" si="3"/>
-        <v/>
-      </c>
-      <c r="J93" s="3"/>
-    </row>
-    <row r="94" spans="1:10" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A94" s="7">
+        <v>A</v>
+      </c>
+      <c r="J93" s="10"/>
+    </row>
+    <row r="94" spans="1:10" s="12" customFormat="1" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="A94" s="9">
         <v>91</v>
       </c>
-      <c r="B94" s="7" t="s">
+      <c r="B94" s="9" t="s">
         <v>190</v>
       </c>
-      <c r="C94" s="7" t="s">
+      <c r="C94" s="9" t="s">
         <v>191</v>
       </c>
-      <c r="D94" s="3"/>
-      <c r="E94" s="3"/>
-      <c r="F94" s="3"/>
-      <c r="G94" s="3"/>
-      <c r="H94" s="3">
+      <c r="D94" s="10">
+        <v>10</v>
+      </c>
+      <c r="E94" s="10">
+        <v>10</v>
+      </c>
+      <c r="F94" s="10">
+        <v>18</v>
+      </c>
+      <c r="G94" s="10">
+        <v>50</v>
+      </c>
+      <c r="H94" s="10">
         <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="I94" s="5" t="str">
+        <v>88</v>
+      </c>
+      <c r="I94" s="11" t="str">
         <f t="shared" si="3"/>
-        <v/>
-      </c>
-      <c r="J94" s="3"/>
-    </row>
-    <row r="95" spans="1:10" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A95" s="7">
+        <v>B</v>
+      </c>
+      <c r="J94" s="10"/>
+    </row>
+    <row r="95" spans="1:10" s="12" customFormat="1" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="A95" s="9">
         <v>92</v>
       </c>
-      <c r="B95" s="7" t="s">
+      <c r="B95" s="9" t="s">
         <v>192</v>
       </c>
-      <c r="C95" s="7" t="s">
+      <c r="C95" s="9" t="s">
         <v>193</v>
       </c>
-      <c r="D95" s="3"/>
-      <c r="E95" s="3"/>
-      <c r="F95" s="3"/>
-      <c r="G95" s="3"/>
-      <c r="H95" s="3">
+      <c r="D95" s="10">
+        <v>10</v>
+      </c>
+      <c r="E95" s="10">
+        <v>10</v>
+      </c>
+      <c r="F95" s="10">
+        <v>15</v>
+      </c>
+      <c r="G95" s="10"/>
+      <c r="H95" s="10">
         <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="I95" s="5" t="str">
+        <v>35</v>
+      </c>
+      <c r="I95" s="11" t="str">
         <f t="shared" si="3"/>
-        <v/>
-      </c>
-      <c r="J95" s="3"/>
-    </row>
-    <row r="96" spans="1:10" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A96" s="7">
+        <v>F</v>
+      </c>
+      <c r="J95" s="10"/>
+    </row>
+    <row r="96" spans="1:10" s="12" customFormat="1" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="A96" s="9">
         <v>93</v>
       </c>
-      <c r="B96" s="7" t="s">
+      <c r="B96" s="9" t="s">
         <v>194</v>
       </c>
-      <c r="C96" s="7" t="s">
+      <c r="C96" s="9" t="s">
         <v>195</v>
       </c>
-      <c r="D96" s="3"/>
-      <c r="E96" s="3"/>
-      <c r="F96" s="3"/>
-      <c r="G96" s="3"/>
-      <c r="H96" s="3">
+      <c r="D96" s="10">
+        <v>10</v>
+      </c>
+      <c r="E96" s="10">
+        <v>20</v>
+      </c>
+      <c r="F96" s="10">
+        <v>20</v>
+      </c>
+      <c r="G96" s="10">
+        <v>36</v>
+      </c>
+      <c r="H96" s="10">
         <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="I96" s="5" t="str">
+        <v>86</v>
+      </c>
+      <c r="I96" s="11" t="str">
         <f t="shared" si="3"/>
-        <v/>
-      </c>
-      <c r="J96" s="3"/>
-    </row>
-    <row r="97" spans="1:10" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A97" s="7">
+        <v>B</v>
+      </c>
+      <c r="J96" s="10"/>
+    </row>
+    <row r="97" spans="1:10" s="12" customFormat="1" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="A97" s="9">
         <v>94</v>
       </c>
-      <c r="B97" s="7" t="s">
+      <c r="B97" s="9" t="s">
         <v>196</v>
       </c>
-      <c r="C97" s="7" t="s">
+      <c r="C97" s="9" t="s">
         <v>197</v>
       </c>
-      <c r="D97" s="3"/>
-      <c r="E97" s="3"/>
-      <c r="F97" s="3"/>
-      <c r="G97" s="3"/>
-      <c r="H97" s="3">
+      <c r="D97" s="10">
+        <v>10</v>
+      </c>
+      <c r="E97" s="10">
+        <v>10</v>
+      </c>
+      <c r="F97" s="10">
+        <v>18</v>
+      </c>
+      <c r="G97" s="10">
+        <v>35</v>
+      </c>
+      <c r="H97" s="10">
         <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="I97" s="5" t="str">
+        <v>73</v>
+      </c>
+      <c r="I97" s="11" t="str">
         <f t="shared" si="3"/>
-        <v/>
-      </c>
-      <c r="J97" s="3"/>
-    </row>
-    <row r="98" spans="1:10" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A98" s="7">
+        <v>D</v>
+      </c>
+      <c r="J97" s="10"/>
+    </row>
+    <row r="98" spans="1:10" s="12" customFormat="1" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="A98" s="9">
         <v>95</v>
       </c>
-      <c r="B98" s="7" t="s">
+      <c r="B98" s="9" t="s">
         <v>198</v>
       </c>
-      <c r="C98" s="7" t="s">
+      <c r="C98" s="9" t="s">
         <v>199</v>
       </c>
-      <c r="D98" s="3"/>
-      <c r="E98" s="3"/>
-      <c r="F98" s="3"/>
-      <c r="G98" s="3"/>
-      <c r="H98" s="3">
+      <c r="D98" s="10">
+        <v>10</v>
+      </c>
+      <c r="E98" s="10">
+        <v>20</v>
+      </c>
+      <c r="F98" s="10">
+        <v>20</v>
+      </c>
+      <c r="G98" s="10">
+        <v>50</v>
+      </c>
+      <c r="H98" s="10">
         <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="I98" s="5" t="str">
+        <v>100</v>
+      </c>
+      <c r="I98" s="11" t="str">
         <f t="shared" si="3"/>
-        <v/>
-      </c>
-      <c r="J98" s="3"/>
-    </row>
-    <row r="99" spans="1:10" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A99" s="7">
+        <v>A</v>
+      </c>
+      <c r="J98" s="10"/>
+    </row>
+    <row r="99" spans="1:10" s="12" customFormat="1" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="A99" s="9">
         <v>96</v>
       </c>
-      <c r="B99" s="7" t="s">
+      <c r="B99" s="9" t="s">
         <v>200</v>
       </c>
-      <c r="C99" s="7" t="s">
+      <c r="C99" s="9" t="s">
         <v>201</v>
       </c>
-      <c r="D99" s="3"/>
-      <c r="E99" s="3"/>
-      <c r="F99" s="3"/>
-      <c r="G99" s="3"/>
-      <c r="H99" s="3">
+      <c r="D99" s="10">
+        <v>10</v>
+      </c>
+      <c r="E99" s="10">
+        <v>11</v>
+      </c>
+      <c r="F99" s="10">
+        <v>20</v>
+      </c>
+      <c r="G99" s="10">
+        <v>35</v>
+      </c>
+      <c r="H99" s="10">
         <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="I99" s="5" t="str">
+        <v>76</v>
+      </c>
+      <c r="I99" s="11" t="str">
         <f t="shared" si="3"/>
-        <v/>
-      </c>
-      <c r="J99" s="3"/>
-    </row>
-    <row r="100" spans="1:10" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A100" s="7">
+        <v>C</v>
+      </c>
+      <c r="J99" s="10"/>
+    </row>
+    <row r="100" spans="1:10" s="12" customFormat="1" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="A100" s="9">
         <v>97</v>
       </c>
-      <c r="B100" s="7" t="s">
+      <c r="B100" s="9" t="s">
         <v>202</v>
       </c>
-      <c r="C100" s="7" t="s">
+      <c r="C100" s="9" t="s">
         <v>203</v>
       </c>
-      <c r="D100" s="3"/>
-      <c r="E100" s="3"/>
-      <c r="F100" s="3"/>
-      <c r="G100" s="3"/>
-      <c r="H100" s="3">
+      <c r="D100" s="10">
+        <v>10</v>
+      </c>
+      <c r="E100" s="10">
+        <v>17</v>
+      </c>
+      <c r="F100" s="10">
+        <v>20</v>
+      </c>
+      <c r="G100" s="10">
+        <v>35</v>
+      </c>
+      <c r="H100" s="10">
         <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="I100" s="5" t="str">
+        <v>82</v>
+      </c>
+      <c r="I100" s="11" t="str">
         <f t="shared" si="3"/>
-        <v/>
-      </c>
-      <c r="J100" s="3"/>
-    </row>
-    <row r="101" spans="1:10" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A101" s="7">
+        <v>B</v>
+      </c>
+      <c r="J100" s="10"/>
+    </row>
+    <row r="101" spans="1:10" s="12" customFormat="1" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="A101" s="9">
         <v>98</v>
       </c>
-      <c r="B101" s="7" t="s">
+      <c r="B101" s="9" t="s">
         <v>204</v>
       </c>
-      <c r="C101" s="7" t="s">
+      <c r="C101" s="9" t="s">
         <v>205</v>
       </c>
-      <c r="D101" s="3"/>
-      <c r="E101" s="3"/>
-      <c r="F101" s="3"/>
-      <c r="G101" s="3"/>
-      <c r="H101" s="3">
+      <c r="D101" s="10">
+        <v>10</v>
+      </c>
+      <c r="E101" s="10">
+        <v>20</v>
+      </c>
+      <c r="F101" s="10">
+        <v>15</v>
+      </c>
+      <c r="G101" s="10">
+        <v>50</v>
+      </c>
+      <c r="H101" s="10">
         <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="I101" s="5" t="str">
+        <v>95</v>
+      </c>
+      <c r="I101" s="11" t="str">
         <f t="shared" si="3"/>
-        <v/>
-      </c>
-      <c r="J101" s="3"/>
-    </row>
-    <row r="102" spans="1:10" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A102" s="7">
+        <v>A</v>
+      </c>
+      <c r="J101" s="10"/>
+    </row>
+    <row r="102" spans="1:10" s="12" customFormat="1" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="A102" s="9">
         <v>99</v>
       </c>
-      <c r="B102" s="7" t="s">
+      <c r="B102" s="9" t="s">
         <v>206</v>
       </c>
-      <c r="C102" s="7" t="s">
+      <c r="C102" s="9" t="s">
         <v>207</v>
       </c>
-      <c r="D102" s="3"/>
-      <c r="E102" s="3"/>
-      <c r="F102" s="3"/>
-      <c r="G102" s="3"/>
-      <c r="H102" s="3">
+      <c r="D102" s="10">
+        <v>10</v>
+      </c>
+      <c r="E102" s="10">
+        <v>20</v>
+      </c>
+      <c r="F102" s="10">
+        <v>20</v>
+      </c>
+      <c r="G102" s="10">
+        <v>50</v>
+      </c>
+      <c r="H102" s="10">
         <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="I102" s="5" t="str">
+        <v>100</v>
+      </c>
+      <c r="I102" s="11" t="str">
         <f t="shared" si="3"/>
-        <v/>
-      </c>
-      <c r="J102" s="3"/>
-    </row>
-    <row r="103" spans="1:10" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A103" s="7">
+        <v>A</v>
+      </c>
+      <c r="J102" s="10"/>
+    </row>
+    <row r="103" spans="1:10" s="12" customFormat="1" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="A103" s="9">
         <v>100</v>
       </c>
-      <c r="B103" s="7" t="s">
+      <c r="B103" s="9" t="s">
         <v>208</v>
       </c>
-      <c r="C103" s="7" t="s">
+      <c r="C103" s="9" t="s">
         <v>209</v>
       </c>
-      <c r="D103" s="3"/>
-      <c r="E103" s="3"/>
-      <c r="F103" s="3"/>
-      <c r="G103" s="3"/>
-      <c r="H103" s="3">
+      <c r="D103" s="10">
+        <v>10</v>
+      </c>
+      <c r="E103" s="10">
+        <v>10</v>
+      </c>
+      <c r="F103" s="10">
+        <v>18</v>
+      </c>
+      <c r="G103" s="10">
+        <v>35</v>
+      </c>
+      <c r="H103" s="10">
         <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="I103" s="5" t="str">
+        <v>73</v>
+      </c>
+      <c r="I103" s="11" t="str">
         <f t="shared" si="3"/>
-        <v/>
-      </c>
-      <c r="J103" s="3"/>
+        <v>D</v>
+      </c>
+      <c r="J103" s="10"/>
     </row>
     <row r="104" spans="1:10" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A104" s="7">
@@ -3926,77 +4230,99 @@
       </c>
       <c r="J104" s="3"/>
     </row>
-    <row r="105" spans="1:10" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A105" s="7">
+    <row r="105" spans="1:10" s="12" customFormat="1" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="A105" s="9">
         <v>102</v>
       </c>
-      <c r="B105" s="7" t="s">
+      <c r="B105" s="9" t="s">
         <v>212</v>
       </c>
-      <c r="C105" s="7" t="s">
+      <c r="C105" s="9" t="s">
         <v>213</v>
       </c>
-      <c r="D105" s="3"/>
-      <c r="E105" s="3"/>
-      <c r="F105" s="3"/>
-      <c r="G105" s="3"/>
-      <c r="H105" s="3">
+      <c r="D105" s="10">
+        <v>10</v>
+      </c>
+      <c r="E105" s="10">
+        <v>11</v>
+      </c>
+      <c r="F105" s="10">
+        <v>20</v>
+      </c>
+      <c r="G105" s="10">
+        <v>40</v>
+      </c>
+      <c r="H105" s="10">
         <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="I105" s="5" t="str">
+        <v>81</v>
+      </c>
+      <c r="I105" s="11" t="str">
         <f t="shared" si="3"/>
-        <v/>
-      </c>
-      <c r="J105" s="3"/>
-    </row>
-    <row r="106" spans="1:10" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A106" s="7">
+        <v>B</v>
+      </c>
+      <c r="J105" s="10"/>
+    </row>
+    <row r="106" spans="1:10" s="12" customFormat="1" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="A106" s="9">
         <v>103</v>
       </c>
-      <c r="B106" s="7" t="s">
+      <c r="B106" s="9" t="s">
         <v>214</v>
       </c>
-      <c r="C106" s="7" t="s">
+      <c r="C106" s="9" t="s">
         <v>215</v>
       </c>
-      <c r="D106" s="3"/>
-      <c r="E106" s="3"/>
-      <c r="F106" s="3"/>
-      <c r="G106" s="3"/>
-      <c r="H106" s="3">
+      <c r="D106" s="10">
+        <v>10</v>
+      </c>
+      <c r="E106" s="10">
+        <v>20</v>
+      </c>
+      <c r="F106" s="10">
+        <v>20</v>
+      </c>
+      <c r="G106" s="10">
+        <v>1</v>
+      </c>
+      <c r="H106" s="10">
         <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="I106" s="5" t="str">
+        <v>51</v>
+      </c>
+      <c r="I106" s="11" t="str">
         <f t="shared" si="3"/>
-        <v/>
-      </c>
-      <c r="J106" s="3"/>
-    </row>
-    <row r="107" spans="1:10" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A107" s="7">
+        <v>FI</v>
+      </c>
+      <c r="J106" s="10"/>
+    </row>
+    <row r="107" spans="1:10" s="12" customFormat="1" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="A107" s="9">
         <v>104</v>
       </c>
-      <c r="B107" s="7" t="s">
+      <c r="B107" s="9" t="s">
         <v>216</v>
       </c>
-      <c r="C107" s="7" t="s">
+      <c r="C107" s="9" t="s">
         <v>217</v>
       </c>
-      <c r="D107" s="3"/>
-      <c r="E107" s="3"/>
-      <c r="F107" s="3"/>
-      <c r="G107" s="3"/>
-      <c r="H107" s="3">
+      <c r="D107" s="10">
+        <v>10</v>
+      </c>
+      <c r="E107" s="10">
+        <v>20</v>
+      </c>
+      <c r="F107" s="10">
+        <v>20</v>
+      </c>
+      <c r="G107" s="10"/>
+      <c r="H107" s="10">
         <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="I107" s="5" t="str">
+        <v>50</v>
+      </c>
+      <c r="I107" s="11" t="str">
         <f t="shared" si="3"/>
-        <v/>
-      </c>
-      <c r="J107" s="3"/>
+        <v>FI</v>
+      </c>
+      <c r="J107" s="10"/>
     </row>
     <row r="108" spans="1:10" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A108" s="7">
@@ -4022,29 +4348,35 @@
       </c>
       <c r="J108" s="3"/>
     </row>
-    <row r="109" spans="1:10" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A109" s="7">
+    <row r="109" spans="1:10" s="16" customFormat="1" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="A109" s="13">
         <v>106</v>
       </c>
-      <c r="B109" s="7" t="s">
+      <c r="B109" s="13" t="s">
         <v>220</v>
       </c>
-      <c r="C109" s="7" t="s">
+      <c r="C109" s="13" t="s">
         <v>221</v>
       </c>
-      <c r="D109" s="3"/>
-      <c r="E109" s="3"/>
-      <c r="F109" s="3"/>
-      <c r="G109" s="3"/>
-      <c r="H109" s="3">
+      <c r="D109" s="14">
+        <v>10</v>
+      </c>
+      <c r="E109" s="14">
+        <v>10</v>
+      </c>
+      <c r="F109" s="14">
+        <v>12</v>
+      </c>
+      <c r="G109" s="14"/>
+      <c r="H109" s="14">
         <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="I109" s="5" t="str">
+        <v>32</v>
+      </c>
+      <c r="I109" s="15" t="str">
         <f t="shared" si="3"/>
-        <v/>
-      </c>
-      <c r="J109" s="3"/>
+        <v>F</v>
+      </c>
+      <c r="J109" s="14"/>
     </row>
     <row r="110" spans="1:10" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A110" s="7"/>
@@ -7221,19 +7553,19 @@
       <c r="J384" s="3"/>
     </row>
   </sheetData>
-  <autoFilter ref="A3:I3"/>
+  <autoFilter ref="A3:I3" xr:uid="{00000000-0009-0000-0000-000000000000}"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/OYM/_DocumentosComunes/_BaseDatos.xlsx
+++ b/OYM/_DocumentosComunes/_BaseDatos.xlsx
@@ -1,16 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="21601"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\_kOneDrive\_DESARROLLO\_DocumentosUniversitarios\OYM\_DocumentosComunes\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\_DESARRLLOPERSONAL\DocumentosUniversitarios\OYM\_DocumentosComunes\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E4831773-4168-42E2-B9AC-560A503A3413}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -19,7 +18,7 @@
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Sheet1!$A$3:$I$3</definedName>
   </definedNames>
-  <calcPr calcId="191029"/>
+  <calcPr calcId="152511"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -700,7 +699,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <fonts count="9" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -1104,14 +1103,14 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:J384"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A66" workbookViewId="0">
-      <selection activeCell="C75" sqref="C75"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="H65" sqref="H65"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="5.5703125" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="20" customWidth="1"/>
@@ -2988,35 +2987,26 @@
       </c>
       <c r="J64" s="3"/>
     </row>
-    <row r="65" spans="1:10" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A65" s="7">
+    <row r="65" spans="1:10" s="12" customFormat="1" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="A65" s="9">
         <v>62</v>
       </c>
-      <c r="B65" s="7" t="s">
+      <c r="B65" s="9" t="s">
         <v>132</v>
       </c>
-      <c r="C65" s="7" t="s">
+      <c r="C65" s="9" t="s">
         <v>133</v>
       </c>
-      <c r="D65" s="3">
-        <v>10</v>
-      </c>
-      <c r="E65" s="3">
-        <v>11</v>
-      </c>
-      <c r="F65" s="3">
-        <v>20</v>
-      </c>
-      <c r="G65" s="3"/>
-      <c r="H65" s="3">
-        <f t="shared" si="0"/>
-        <v>41</v>
-      </c>
-      <c r="I65" s="5" t="str">
+      <c r="D65" s="10"/>
+      <c r="E65" s="10"/>
+      <c r="F65" s="10"/>
+      <c r="G65" s="10"/>
+      <c r="H65" s="10"/>
+      <c r="I65" s="11" t="str">
         <f t="shared" si="1"/>
-        <v>F</v>
-      </c>
-      <c r="J65" s="3"/>
+        <v/>
+      </c>
+      <c r="J65" s="10"/>
     </row>
     <row r="66" spans="1:10" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A66" s="7">
@@ -3192,17 +3182,17 @@
         <v>10</v>
       </c>
       <c r="E71" s="10">
-        <v>15</v>
+        <v>20</v>
       </c>
       <c r="F71" s="10">
         <v>20</v>
       </c>
       <c r="G71" s="10">
-        <v>45</v>
+        <v>50</v>
       </c>
       <c r="H71" s="10">
         <f t="shared" si="2"/>
-        <v>90</v>
+        <v>100</v>
       </c>
       <c r="I71" s="11" t="str">
         <f t="shared" si="3"/>
@@ -3224,7 +3214,7 @@
         <v>10</v>
       </c>
       <c r="E72" s="10">
-        <v>2</v>
+        <v>15</v>
       </c>
       <c r="F72" s="10">
         <v>18</v>
@@ -3234,11 +3224,11 @@
       </c>
       <c r="H72" s="10">
         <f t="shared" si="2"/>
-        <v>70</v>
+        <v>83</v>
       </c>
       <c r="I72" s="11" t="str">
         <f t="shared" si="3"/>
-        <v>D</v>
+        <v>B</v>
       </c>
       <c r="J72" s="10"/>
     </row>
@@ -3902,21 +3892,21 @@
         <v>10</v>
       </c>
       <c r="E94" s="10">
-        <v>10</v>
+        <v>20</v>
       </c>
       <c r="F94" s="10">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="G94" s="10">
         <v>50</v>
       </c>
       <c r="H94" s="10">
         <f t="shared" si="2"/>
-        <v>88</v>
+        <v>100</v>
       </c>
       <c r="I94" s="11" t="str">
         <f t="shared" si="3"/>
-        <v>B</v>
+        <v>A</v>
       </c>
       <c r="J94" s="10"/>
     </row>
@@ -3996,7 +3986,7 @@
         <v>10</v>
       </c>
       <c r="E97" s="10">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="F97" s="10">
         <v>18</v>
@@ -4006,11 +3996,11 @@
       </c>
       <c r="H97" s="10">
         <f t="shared" si="2"/>
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="I97" s="11" t="str">
         <f t="shared" si="3"/>
-        <v>D</v>
+        <v>C</v>
       </c>
       <c r="J97" s="10"/>
     </row>
@@ -4313,14 +4303,16 @@
       <c r="F107" s="10">
         <v>20</v>
       </c>
-      <c r="G107" s="10"/>
+      <c r="G107" s="10">
+        <v>30</v>
+      </c>
       <c r="H107" s="10">
         <f t="shared" si="2"/>
-        <v>50</v>
+        <v>80</v>
       </c>
       <c r="I107" s="11" t="str">
         <f t="shared" si="3"/>
-        <v>FI</v>
+        <v>B</v>
       </c>
       <c r="J107" s="10"/>
     </row>
@@ -7553,19 +7545,19 @@
       <c r="J384" s="3"/>
     </row>
   </sheetData>
-  <autoFilter ref="A3:I3" xr:uid="{00000000-0009-0000-0000-000000000000}"/>
+  <autoFilter ref="A3:I3"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
